--- a/Wave 5_React_Tracker_(Saravanakumar_K).xlsx
+++ b/Wave 5_React_Tracker_(Saravanakumar_K).xlsx
@@ -51,12 +51,6 @@
     <t>Compose Mail</t>
   </si>
   <si>
-    <t>Name:</t>
-  </si>
-  <si>
-    <t>Git URL:</t>
-  </si>
-  <si>
     <t>23/08/2016</t>
   </si>
   <si>
@@ -67,6 +61,12 @@
   </si>
   <si>
     <t>Inbox Mails</t>
+  </si>
+  <si>
+    <t>Name: K Saravana kumar K</t>
+  </si>
+  <si>
+    <t>Git URL: https://github.com/SaravanaK35/React</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -429,13 +429,13 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6"/>
     </row>
@@ -456,10 +456,10 @@
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>6</v>
@@ -479,22 +479,22 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>

--- a/Wave 5_React_Tracker_(Saravanakumar_K).xlsx
+++ b/Wave 5_React_Tracker_(Saravanakumar_K).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Git URL: https://github.com/SaravanaK35/React</t>
+  </si>
+  <si>
+    <t>24/08/2016</t>
+  </si>
+  <si>
+    <t>Almost completed</t>
   </si>
 </sst>
 </file>
@@ -406,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -499,6 +505,14 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>

--- a/Wave 5_React_Tracker_(Saravanakumar_K).xlsx
+++ b/Wave 5_React_Tracker_(Saravanakumar_K).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -72,7 +72,10 @@
     <t>24/08/2016</t>
   </si>
   <si>
-    <t>Almost completed</t>
+    <t>almost completed</t>
+  </si>
+  <si>
+    <t>25/08/2016</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -427,7 +430,7 @@
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" customWidth="1"/>
     <col min="7" max="7" width="42.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="31.42578125" customWidth="1"/>
@@ -511,6 +514,17 @@
       </c>
       <c r="G5" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Wave 5_React_Tracker_(Saravanakumar_K).xlsx
+++ b/Wave 5_React_Tracker_(Saravanakumar_K).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>25/08/2016</t>
+  </si>
+  <si>
+    <t>27/08/2016</t>
+  </si>
+  <si>
+    <t>26/08/2016</t>
   </si>
 </sst>
 </file>
@@ -407,7 +413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -415,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -527,6 +533,22 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>

--- a/Wave 5_React_Tracker_(Saravanakumar_K).xlsx
+++ b/Wave 5_React_Tracker_(Saravanakumar_K).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>26/08/2016</t>
+  </si>
+  <si>
+    <t>28/08/2016</t>
+  </si>
+  <si>
+    <t>29/08/2016</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -421,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -549,6 +555,22 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
